--- a/proposal/dcache/plots/lm_mkstemp.xlsx
+++ b/proposal/dcache/plots/lm_mkstemp.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26207"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27211"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiache/Workspace/oscar/dcache-optimization/papers/sosp15/plots/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiache/Workspace/oscar/chiache-thesis/proposal/dcache/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,9 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -193,9 +196,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.213342071281453"/>
+          <c:x val="0.175353638496489"/>
           <c:y val="0.182813060343182"/>
-          <c:w val="0.767740900280761"/>
+          <c:w val="0.805729321390809"/>
           <c:h val="0.623162352822627"/>
         </c:manualLayout>
       </c:layout>
@@ -234,8 +237,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.0"/>
-                  <c:y val="-0.0342298325119023"/>
+                  <c:x val="-0.00108538362585138"/>
+                  <c:y val="0.00529160587916692"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="outEnd"/>
@@ -255,8 +258,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.0"/>
-                  <c:y val="-0.0190165736177234"/>
+                  <c:x val="-0.00651230175510805"/>
+                  <c:y val="0.00544912854990968"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="outEnd"/>
@@ -661,11 +664,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-50"/>
-        <c:axId val="-2081277632"/>
-        <c:axId val="-2080885424"/>
+        <c:axId val="2109004928"/>
+        <c:axId val="2140672832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2081277632"/>
+        <c:axId val="2109004928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -726,7 +729,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2080885424"/>
+        <c:crossAx val="2140672832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -734,7 +737,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2080885424"/>
+        <c:axId val="2140672832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20.0"/>
@@ -839,7 +842,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2081277632"/>
+        <c:crossAx val="2109004928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0"/>
@@ -901,8 +904,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>220133</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>694266</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>42635</xdr:rowOff>
     </xdr:to>
